--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,40 +70,37 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
     <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -638,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>87530</v>
+        <v>91492</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -660,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -674,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -688,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -702,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -716,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -730,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -744,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -758,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -772,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -786,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -800,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -814,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -828,10 +825,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -842,13 +839,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -859,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -870,13 +867,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>152</v>
+        <v>356</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -884,13 +881,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -898,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -912,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
@@ -926,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -943,10 +940,10 @@
         <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -954,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -968,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -982,10 +979,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -996,10 +993,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>18</v>
@@ -1010,10 +1007,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -1024,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>17</v>
@@ -1041,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1052,13 +1049,13 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -1066,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>18</v>
@@ -1080,59 +1077,59 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>152</v>
+        <v>356</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>3962</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>91492</v>
+        <v>94823</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -76,31 +76,34 @@
     <t>Interes Serviciu</t>
   </si>
   <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
+    <t>Cluj-Satu-Mare</t>
   </si>
   <si>
     <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -635,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>91492</v>
+        <v>109794</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -671,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -685,13 +688,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -699,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -713,10 +716,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -727,13 +730,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -741,10 +744,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -755,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -769,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -783,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -797,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -811,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -825,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -839,10 +842,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -856,10 +859,10 @@
         <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -867,13 +870,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -884,10 +887,10 @@
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -895,13 +898,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -909,10 +912,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
@@ -926,10 +929,10 @@
         <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -940,7 +943,7 @@
         <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -954,10 +957,10 @@
         <v>30</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -965,13 +968,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -979,13 +982,13 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -993,7 +996,7 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>156</v>
+        <v>421</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>27</v>
@@ -1007,10 +1010,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -1021,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -1038,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1049,13 +1052,13 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -1063,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>18</v>
@@ -1077,59 +1080,59 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>3331</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>94823</v>
+        <v>113057</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -70,40 +70,40 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
     <t>Cluj-Satu-Mare</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
-    <t>Cluj-Dej</t>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Cluj-Bontida</t>
   </si>
   <si>
     <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -716,13 +716,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -730,13 +730,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -744,10 +744,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -758,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -772,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -786,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -814,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
@@ -828,13 +828,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -842,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -856,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>18</v>
@@ -870,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -884,10 +884,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>421</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -912,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>27</v>
@@ -926,13 +926,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -954,10 +954,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
@@ -968,13 +968,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -982,13 +982,13 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -996,13 +996,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -1010,13 +1010,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -1024,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -1038,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1052,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
@@ -1066,13 +1066,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -1083,7 +1083,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>3930</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -1102,7 +1102,7 @@
         <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>85196</v>
+        <v>84493</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,40 +70,43 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
     <t>Cluj-Bontida</t>
   </si>
   <si>
-    <t>Cluj-Bistrita</t>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -124,7 +127,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 05.04.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 10.04.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -638,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>81266</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -660,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -674,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -691,7 +694,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -702,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -719,10 +722,10 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -733,10 +736,10 @@
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -744,10 +747,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -761,10 +764,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -772,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -786,10 +789,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
@@ -800,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -814,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
@@ -828,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -842,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -856,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -870,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -884,10 +887,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -898,13 +901,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -912,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>27</v>
@@ -926,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -940,13 +943,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -954,13 +957,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -968,10 +971,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>18</v>
@@ -982,13 +985,13 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -996,13 +999,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -1010,10 +1013,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -1027,10 +1030,10 @@
         <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -1038,13 +1041,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1052,10 +1055,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
@@ -1069,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -1080,10 +1083,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -1091,48 +1094,48 @@
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B76" s="5">
-        <v>3227</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" s="5">
-        <v>84493</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -70,43 +70,43 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
     <t>Cluj-Bistrita</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
     <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>3897</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -677,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -708,10 +708,10 @@
         <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -719,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -733,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -747,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -761,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -775,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>421</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -803,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -817,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -831,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -848,10 +848,10 @@
         <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -859,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -887,13 +887,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -901,13 +901,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -915,13 +915,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -929,10 +929,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -943,13 +943,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -957,13 +957,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -971,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -985,10 +985,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -999,13 +999,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -1013,10 +1013,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -1030,10 +1030,10 @@
         <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -1041,13 +1041,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1055,13 +1055,13 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -1069,13 +1069,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -1083,13 +1083,13 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B76" s="5">
-        <v>4467</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -1105,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="5">
-        <v>8364</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -70,43 +70,43 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Cluj-Zalau</t>
   </si>
   <si>
-    <t>Cluj-Turda</t>
+    <t>Cluj-Bontida</t>
   </si>
   <si>
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
     <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>8364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -677,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>152</v>
+        <v>421</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -705,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -719,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -733,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -747,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -761,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -775,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -803,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -817,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -831,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -845,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -859,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -887,13 +887,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -901,13 +901,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -915,13 +915,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -929,10 +929,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -943,13 +943,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -957,13 +957,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -971,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -985,10 +985,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -999,13 +999,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -1013,10 +1013,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -1027,10 +1027,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -1041,13 +1041,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1055,13 +1055,13 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -1072,10 +1072,10 @@
         <v>421</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -1083,13 +1083,13 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B76" s="5">
-        <v>4222</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -1105,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="5">
-        <v>12586</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">

--- a/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_martie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,45 +70,42 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 10.04.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 17.04.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -641,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>52375</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -663,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -677,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -691,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -705,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -719,10 +716,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -736,10 +733,10 @@
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -747,10 +744,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -764,10 +761,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -775,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -789,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -803,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
@@ -817,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -831,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>156</v>
+        <v>421</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -845,10 +842,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -859,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>18</v>
@@ -873,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -890,7 +887,7 @@
         <v>356</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -901,13 +898,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -918,10 +915,10 @@
         <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -929,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>28</v>
@@ -943,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -957,10 +954,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
@@ -971,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>25</v>
@@ -985,10 +982,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>421</v>
+        <v>101</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -999,13 +996,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -1013,13 +1010,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -1027,10 +1024,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -1044,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1055,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
@@ -1069,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>18</v>
@@ -1083,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -1094,48 +1091,48 @@
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>4803</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>4803</v>
+        <v>57790</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
